--- a/testData.xlsx
+++ b/testData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18240" windowHeight="7380"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="18240" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>HTTP</t>
   </si>
@@ -47,7 +47,13 @@
     <t>fileName</t>
   </si>
   <si>
-    <t>testLinews35</t>
+    <t>test.txt</t>
+  </si>
+  <si>
+    <t>test2.txt</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -63,12 +69,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -122,11 +146,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +473,7 @@
   <dimension ref="A2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,166 +513,294 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>35</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>351</v>
+      </c>
+      <c r="F3" s="4">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="E4" s="3">
+        <v>352</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="E5" s="3">
+        <v>354</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="E6" s="3">
+        <v>353</v>
+      </c>
+      <c r="F6" s="4">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="E7" s="3">
+        <v>353</v>
+      </c>
+      <c r="F7" s="4">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>324</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
+        <v>325</v>
+      </c>
+      <c r="F9" s="6">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5">
+        <v>324</v>
+      </c>
+      <c r="F10" s="6">
+        <v>10</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
+        <v>321</v>
+      </c>
+      <c r="F11" s="6">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
+        <v>322</v>
+      </c>
+      <c r="F12" s="6">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="A13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>89</v>
+      </c>
+      <c r="F13" s="8">
+        <v>10</v>
+      </c>
+      <c r="G13" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
+        <v>88</v>
+      </c>
+      <c r="F14" s="8">
+        <v>10</v>
+      </c>
+      <c r="G14" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7">
+        <v>88</v>
+      </c>
+      <c r="F15" s="8">
+        <v>10</v>
+      </c>
+      <c r="G15" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7">
+        <v>89</v>
+      </c>
+      <c r="F16" s="8">
+        <v>10</v>
+      </c>
+      <c r="G16" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
+        <v>90</v>
+      </c>
+      <c r="F17" s="8">
+        <v>10</v>
+      </c>
+      <c r="G17" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testData.xlsx
+++ b/testData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\14cva_000\Documents\cs305_proj1_blargslavalle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lavalle\Desktop\cs305_proj1_blargslavalle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t>HTTP</t>
   </si>
@@ -53,14 +53,20 @@
     <t>test2.txt</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>test3.txt</t>
+  </si>
+  <si>
+    <t>test4.txt</t>
+  </si>
+  <si>
+    <t>Averaged Diff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,8 +74,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,24 +106,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -133,31 +209,96 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="12">
+    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
+    <cellStyle name="40% - Accent5" xfId="9" builtinId="47"/>
+    <cellStyle name="60% - Accent2" xfId="5" builtinId="36"/>
+    <cellStyle name="60% - Accent3" xfId="7" builtinId="40"/>
+    <cellStyle name="60% - Accent6" xfId="11" builtinId="52"/>
+    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="4" builtinId="33"/>
+    <cellStyle name="Accent3" xfId="6" builtinId="37"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="Accent6" xfId="10" builtinId="49"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -171,6 +312,4599 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HTTP 1.0 vs HTTP 1.1 (test.txt)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HTTP 1.0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D964-4C66-B2B1-3DCF532EB08D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HTTP 1.1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$7:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D964-4C66-B2B1-3DCF532EB08D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="441930840"/>
+        <c:axId val="441928544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="441930840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441928544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441928544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="441930840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HTTP 1.0 vs HTTP 1.1 (test2.txt)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HTTP 1.0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$12:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3767-49B6-9DEE-6D5ECC9E5209}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HTTP 1.1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$17:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3767-49B6-9DEE-6D5ECC9E5209}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="539440656"/>
+        <c:axId val="539439344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="539440656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539439344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539439344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="539440656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HTTP 1.0 vs HTTP 1.1 (test3.txt)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HTTP 1.0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$22:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0657-4888-9D2C-DEBBF1C56DFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HTTP 1.1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$27:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>470</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0657-4888-9D2C-DEBBF1C56DFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="539436224"/>
+        <c:axId val="539441968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="539436224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539441968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539441968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="539436224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HTTP 1.0 vs HTTP 1.1 (test4.txt)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HTTP 1.0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$32:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A83-4E90-8C00-C4394BCA67AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HTTP 1.1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$37:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4A83-4E90-8C00-C4394BCA67AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="542165088"/>
+        <c:axId val="542162464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="542165088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542162464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="542162464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="542165088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>368113</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>368114</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{353FBF79-83AA-48F9-B815-714C77780D90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>377638</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>368113</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C93453-D5E4-423F-BFF1-5E7B0990C177}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>368113</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>353546</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0065BAB6-060F-4C51-86D6-9BFAE34110F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>368113</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>387163</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0C8F1D-4A67-49F9-BF79-197D7A43ACD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,340 +5204,1080 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G19"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="K1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="21"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
         <v>2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E2" s="10">
         <v>351</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F2" s="10">
         <v>10</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G2" s="10">
         <v>2</v>
       </c>
+      <c r="H2" s="10">
+        <f>AVERAGE(E2:E6)</f>
+        <v>352.6</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10">
         <v>352</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F3" s="10">
         <v>10</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G3" s="10">
         <v>2</v>
       </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
         <v>354</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F4" s="10">
         <v>10</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G4" s="10">
         <v>2</v>
       </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10">
         <v>353</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F5" s="10">
         <v>10</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G5" s="10">
         <v>2</v>
       </c>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10">
         <v>353</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F6" s="10">
         <v>10</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G6" s="10">
         <v>2</v>
       </c>
+      <c r="K6" s="21">
+        <f>ABS(I7-H2)</f>
+        <v>29.400000000000034</v>
+      </c>
+      <c r="L6" s="21"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="C7" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
         <v>2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F7" s="11">
         <v>324</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G7" s="11">
         <v>10</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H7" s="11">
         <v>2</v>
       </c>
+      <c r="I7" s="11">
+        <f>AVERAGE(F7:F11)</f>
+        <v>323.2</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="C8" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5">
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11">
         <v>325</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G8" s="11">
         <v>10</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H8" s="11">
         <v>2</v>
       </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
+      <c r="C9" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5">
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11">
         <v>324</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G9" s="11">
         <v>10</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H9" s="11">
         <v>2</v>
       </c>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5">
+      <c r="C10" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5">
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11">
         <v>321</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G10" s="11">
         <v>10</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H10" s="11">
         <v>2</v>
       </c>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="5">
+      <c r="C11" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5">
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11">
         <v>322</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G11" s="11">
         <v>10</v>
       </c>
-      <c r="G12" s="6">
+      <c r="H11" s="16">
         <v>2</v>
       </c>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>89</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+      <c r="G12" s="18">
+        <v>2</v>
+      </c>
+      <c r="H12" s="20">
+        <f>AVERAGE(E12:E16)</f>
+        <v>88.8</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>88</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" s="18">
+        <v>2</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>88</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>89</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>90</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="K16" s="21">
+        <f t="shared" ref="K7:K41" si="0">ABS(I17-H12)</f>
+        <v>1.2000000000000028</v>
+      </c>
+      <c r="L16" s="21"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>87</v>
+      </c>
+      <c r="G17" s="4">
+        <v>10</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4">
+        <f>AVERAGE(F17:F21)</f>
+        <v>87.6</v>
+      </c>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>88</v>
+      </c>
+      <c r="G18" s="4">
+        <v>10</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2</v>
+      </c>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>88</v>
+      </c>
+      <c r="G19" s="4">
+        <v>10</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2</v>
+      </c>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>87</v>
+      </c>
+      <c r="G20" s="4">
+        <v>10</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>88</v>
+      </c>
+      <c r="G21" s="4">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2</v>
+      </c>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7">
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
+        <v>19</v>
+      </c>
+      <c r="D22" s="6">
         <v>0</v>
       </c>
-      <c r="E13" s="7">
-        <v>89</v>
-      </c>
-      <c r="F13" s="8">
+      <c r="E22" s="6">
+        <v>472</v>
+      </c>
+      <c r="F22" s="6">
         <v>10</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G22" s="6">
         <v>2</v>
       </c>
+      <c r="H22" s="17">
+        <f>AVERAGE(E22:E26)</f>
+        <v>472</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7">
-        <v>88</v>
-      </c>
-      <c r="F14" s="8">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
+        <v>19</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>472</v>
+      </c>
+      <c r="F23" s="5">
         <v>10</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G23" s="5">
         <v>2</v>
       </c>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7">
-        <v>88</v>
-      </c>
-      <c r="F15" s="8">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
+        <v>19</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>473</v>
+      </c>
+      <c r="F24" s="5">
         <v>10</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G24" s="5">
         <v>2</v>
       </c>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7">
-        <v>89</v>
-      </c>
-      <c r="F16" s="8">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5">
+        <v>19</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>471</v>
+      </c>
+      <c r="F25" s="5">
         <v>10</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G25" s="5">
         <v>2</v>
       </c>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7">
-        <v>90</v>
-      </c>
-      <c r="F17" s="8">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>19</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>472</v>
+      </c>
+      <c r="F26" s="5">
         <v>10</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G26" s="5">
         <v>2</v>
       </c>
+      <c r="K26" s="21">
+        <f t="shared" si="0"/>
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="L26" s="21"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D27" s="8">
+        <v>19</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>472</v>
+      </c>
+      <c r="G27" s="8">
+        <v>10</v>
+      </c>
+      <c r="H27" s="7">
+        <v>2</v>
+      </c>
+      <c r="I27" s="2">
+        <f>AVERAGE(F27:F31)</f>
+        <v>471.8</v>
+      </c>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D28" s="7">
+        <v>19</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>472</v>
+      </c>
+      <c r="G28" s="7">
+        <v>10</v>
+      </c>
+      <c r="H28" s="7">
+        <v>2</v>
+      </c>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D29" s="7">
+        <v>19</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>473</v>
+      </c>
+      <c r="G29" s="7">
+        <v>10</v>
+      </c>
+      <c r="H29" s="7">
+        <v>2</v>
+      </c>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D30" s="7">
+        <v>19</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>472</v>
+      </c>
+      <c r="G30" s="7">
+        <v>10</v>
+      </c>
+      <c r="H30" s="7">
+        <v>2</v>
+      </c>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D31" s="7">
+        <v>19</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>470</v>
+      </c>
+      <c r="G31" s="7">
+        <v>10</v>
+      </c>
+      <c r="H31" s="7">
+        <v>2</v>
+      </c>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="13">
+        <v>1</v>
+      </c>
+      <c r="C32" s="13">
+        <v>35</v>
+      </c>
+      <c r="D32" s="13">
+        <v>0</v>
+      </c>
+      <c r="E32" s="13">
+        <v>4995</v>
+      </c>
+      <c r="F32" s="13">
+        <v>13</v>
+      </c>
+      <c r="G32" s="13">
+        <v>5</v>
+      </c>
+      <c r="H32" s="12">
+        <f>AVERAGE(E32:E36)</f>
+        <v>4995.8</v>
+      </c>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="12">
+        <v>1</v>
+      </c>
+      <c r="C33" s="13">
+        <v>35</v>
+      </c>
+      <c r="D33" s="13">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12">
+        <v>4998</v>
+      </c>
+      <c r="F33" s="13">
+        <v>13</v>
+      </c>
+      <c r="G33" s="13">
+        <v>5</v>
+      </c>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="12">
+        <v>1</v>
+      </c>
+      <c r="C34" s="13">
+        <v>35</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12">
+        <v>4994</v>
+      </c>
+      <c r="F34" s="13">
+        <v>13</v>
+      </c>
+      <c r="G34" s="13">
+        <v>5</v>
+      </c>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="12">
+        <v>1</v>
+      </c>
+      <c r="C35" s="13">
+        <v>35</v>
+      </c>
+      <c r="D35" s="13">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12">
+        <v>4996</v>
+      </c>
+      <c r="F35" s="13">
+        <v>13</v>
+      </c>
+      <c r="G35" s="13">
+        <v>5</v>
+      </c>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="12">
+        <v>1</v>
+      </c>
+      <c r="C36" s="13">
+        <v>35</v>
+      </c>
+      <c r="D36" s="13">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12">
+        <v>4996</v>
+      </c>
+      <c r="F36" s="13">
+        <v>13</v>
+      </c>
+      <c r="G36" s="13">
+        <v>5</v>
+      </c>
+      <c r="K36" s="21">
+        <f t="shared" si="0"/>
+        <v>2.5999999999994543</v>
+      </c>
+      <c r="L36" s="21"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D37" s="15">
+        <v>35</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15">
+        <v>4997</v>
+      </c>
+      <c r="G37" s="15">
+        <v>13</v>
+      </c>
+      <c r="H37" s="14">
+        <v>5</v>
+      </c>
+      <c r="I37" s="14">
+        <f>AVERAGE(F37:F41)</f>
+        <v>4998.3999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D38" s="15">
+        <v>35</v>
+      </c>
+      <c r="E38" s="15">
+        <v>0</v>
+      </c>
+      <c r="F38" s="14">
+        <v>4999</v>
+      </c>
+      <c r="G38" s="15">
+        <v>13</v>
+      </c>
+      <c r="H38" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D39" s="15">
+        <v>35</v>
+      </c>
+      <c r="E39" s="15">
+        <v>0</v>
+      </c>
+      <c r="F39" s="14">
+        <v>4999</v>
+      </c>
+      <c r="G39" s="15">
+        <v>13</v>
+      </c>
+      <c r="H39" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D40" s="15">
+        <v>35</v>
+      </c>
+      <c r="E40" s="15">
+        <v>0</v>
+      </c>
+      <c r="F40" s="14">
+        <v>4998</v>
+      </c>
+      <c r="G40" s="15">
+        <v>13</v>
+      </c>
+      <c r="H40" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D41" s="15">
+        <v>35</v>
+      </c>
+      <c r="E41" s="15">
+        <v>0</v>
+      </c>
+      <c r="F41" s="14">
+        <v>4999</v>
+      </c>
+      <c r="G41" s="15">
+        <v>13</v>
+      </c>
+      <c r="H41" s="15">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>